--- a/biology/Médecine/Prix_Paroles_de_patients/Prix_Paroles_de_patients.xlsx
+++ b/biology/Médecine/Prix_Paroles_de_patients/Prix_Paroles_de_patients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prix Paroles de patients est un prix littéraire français créé par le LEEM en 2008.
 </t>
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Paroles de patients est un prix consacrant un genre littéraire nouveau : le témoignage sur une épreuve de vie ou la maladie comme sujet principal d’une œuvre au travers de témoignages originaux, écrits en français.
 La qualité du style des œuvres retenues, la force du témoignage de leur auteur, la profondeur de leur réflexion et leur capacité à transformer une douleur intime en un message universel font du prix Paroles de patients un véritable prix littéraire.
-Un jury indépendant composé de personnalités diverses choisissent un lauréat entre différentes œuvres originales écrites en français. Ce prix est décerné fin octobre[1].
+Un jury indépendant composé de personnalités diverses choisissent un lauréat entre différentes œuvres originales écrites en français. Ce prix est décerné fin octobre.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Liste des jurés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Luc d’Auriol (entrepreneur biotech).
 Béatrice Ceretti (écrivain et peintre).
@@ -585,7 +601,9 @@
           <t>Liste des lauréats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
